--- a/01-Excel/01-Activites/2/Activities/06-Evr_MeasuringMeasures-CentralTendency/Solved/MeasuringMeasures.xlsx
+++ b/01-Excel/01-Activites/2/Activities/06-Evr_MeasuringMeasures-CentralTendency/Solved/MeasuringMeasures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arwenshackelford/curriculum/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/06-Evr_MeasuringMeasures/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/06-Evr_MeasuringMeasures-CentralTendency/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822CAC04-D68D-C140-8DDE-E827052903D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D1F70C-3E7F-AC48-888E-2DC4C3D29F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example 1" sheetId="8" r:id="rId1"/>
@@ -22,10 +22,10 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Example 2'!$A$2:$A$11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -6188,7 +6188,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F09A171-8616-1E49-ABB8-96C8C890CBE6}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Number of Cup Holders">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F09A171-8616-1E49-ABB8-96C8C890CBE6}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Number of Cup Holders">
   <location ref="G2:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -6264,7 +6264,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F82146EC-B928-1B4D-9344-2873B2E6F783}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Number of Cup Holders">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F82146EC-B928-1B4D-9344-2873B2E6F783}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Number of Cup Holders">
   <location ref="G2:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -6340,7 +6340,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F6549D41-CDD4-C24E-B203-68C17D9C93DB}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F6549D41-CDD4-C24E-B203-68C17D9C93DB}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="N12:O17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -6412,7 +6412,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{255BA469-B856-6548-B958-E6228CE66B3B}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{255BA469-B856-6548-B958-E6228CE66B3B}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="N12:O17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
